--- a/Code/Results/Cases/Case_0_240/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_240/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.04499766157007912</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.5561145493057325</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.3136937512866496</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>7.765970774445577</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002745027555741771</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2893103916725011</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.19366097977684</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.04001416266109459</v>
+      </c>
+      <c r="D3">
+        <v>0.5088554707249955</v>
+      </c>
+      <c r="E3">
+        <v>0.2732897656242272</v>
+      </c>
+      <c r="F3">
+        <v>7.925686787949161</v>
+      </c>
+      <c r="G3">
+        <v>0.002770654076205679</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.253762340820316</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>11.04385508346496</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.03701161647651929</v>
+      </c>
+      <c r="D4">
+        <v>0.4808119009912275</v>
+      </c>
+      <c r="E4">
+        <v>0.2485980886736172</v>
+      </c>
+      <c r="F4">
+        <v>8.041550780502263</v>
+      </c>
+      <c r="G4">
+        <v>0.002786989714999649</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.2320895492482862</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>10.34173740654461</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.03580121802922065</v>
+      </c>
+      <c r="D5">
+        <v>0.4696120805572548</v>
+      </c>
+      <c r="E5">
+        <v>0.2385599891383663</v>
+      </c>
+      <c r="F5">
+        <v>8.093103138132818</v>
+      </c>
+      <c r="G5">
+        <v>0.002793800161078101</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.2232913892116528</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>10.05644637384825</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.03560099195881605</v>
+      </c>
+      <c r="D6">
+        <v>0.4677656688824925</v>
+      </c>
+      <c r="E6">
+        <v>0.2368944682023937</v>
+      </c>
+      <c r="F6">
+        <v>8.101921385835965</v>
+      </c>
+      <c r="G6">
+        <v>0.002794940373650202</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.2218323569031355</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>10.00911997097393</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.03699524092938589</v>
+      </c>
+      <c r="D7">
+        <v>0.4806599538597993</v>
+      </c>
+      <c r="E7">
+        <v>0.2484626211400638</v>
+      </c>
+      <c r="F7">
+        <v>8.04222865175808</v>
+      </c>
+      <c r="G7">
+        <v>0.002787080938143384</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.2319707641458137</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>10.33788670461837</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.04326667032206899</v>
+      </c>
+      <c r="D8">
+        <v>0.5396071860592428</v>
+      </c>
+      <c r="E8">
+        <v>0.2997349271448826</v>
+      </c>
+      <c r="F8">
+        <v>7.817261307387099</v>
+      </c>
+      <c r="G8">
+        <v>0.002753740387898192</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.2770183362605678</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>11.79631413774291</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.05608082767737699</v>
+      </c>
+      <c r="D9">
+        <v>0.663734523576295</v>
+      </c>
+      <c r="E9">
+        <v>0.4014694629954931</v>
+      </c>
+      <c r="F9">
+        <v>7.523943695131493</v>
+      </c>
+      <c r="G9">
+        <v>0.002693009493409928</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.3668293469814046</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>14.69422668330679</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.06590147373643163</v>
+      </c>
+      <c r="D10">
+        <v>0.7613401208340065</v>
+      </c>
+      <c r="E10">
+        <v>0.4773453808776935</v>
+      </c>
+      <c r="F10">
+        <v>7.40841150696582</v>
+      </c>
+      <c r="G10">
+        <v>0.002651050356389559</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.4341029035821862</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>16.85765351413363</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.07047949582934621</v>
+      </c>
+      <c r="D11">
+        <v>0.8074273492058524</v>
+      </c>
+      <c r="E11">
+        <v>0.5122087544743152</v>
+      </c>
+      <c r="F11">
+        <v>7.379934175898711</v>
+      </c>
+      <c r="G11">
+        <v>0.002632498037913324</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.4650849912699755</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>17.85207769899824</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.07223097561643499</v>
+      </c>
+      <c r="D12">
+        <v>0.8251482814220026</v>
+      </c>
+      <c r="E12">
+        <v>0.5254695173779282</v>
+      </c>
+      <c r="F12">
+        <v>7.372829760313607</v>
+      </c>
+      <c r="G12">
+        <v>0.00262554602320441</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.4768805278794446</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>18.2303684208469</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.07185293440289797</v>
+      </c>
+      <c r="D13">
+        <v>0.8213193691609035</v>
+      </c>
+      <c r="E13">
+        <v>0.5226108118504129</v>
+      </c>
+      <c r="F13">
+        <v>7.374192536337432</v>
+      </c>
+      <c r="G13">
+        <v>0.002627040062324543</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.4743371838798396</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>18.14881589438835</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.07062322077969441</v>
+      </c>
+      <c r="D14">
+        <v>0.8088797175052491</v>
+      </c>
+      <c r="E14">
+        <v>0.513298494202445</v>
+      </c>
+      <c r="F14">
+        <v>7.379274645289627</v>
+      </c>
+      <c r="G14">
+        <v>0.002631924643190237</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.4660540952762346</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>17.88316385814403</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.06987237619078712</v>
+      </c>
+      <c r="D15">
+        <v>0.8012958813363866</v>
+      </c>
+      <c r="E15">
+        <v>0.5076023594787102</v>
+      </c>
+      <c r="F15">
+        <v>7.382873485775633</v>
+      </c>
+      <c r="G15">
+        <v>0.0026349260303459</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.4609889823908588</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>17.72067653834932</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.06560467981211104</v>
+      </c>
+      <c r="D16">
+        <v>0.758364333077111</v>
+      </c>
+      <c r="E16">
+        <v>0.4750746998706319</v>
+      </c>
+      <c r="F16">
+        <v>7.410775224369786</v>
+      </c>
+      <c r="G16">
+        <v>0.002652273259964431</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.4320865102056928</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>16.79289281652024</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.06301626367226731</v>
+      </c>
+      <c r="D17">
+        <v>0.7324770388732418</v>
+      </c>
+      <c r="E17">
+        <v>0.4552149750544459</v>
+      </c>
+      <c r="F17">
+        <v>7.434207931525521</v>
+      </c>
+      <c r="G17">
+        <v>0.002663049796689776</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.4144588446196735</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>16.22652668052712</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.06153775351546642</v>
+      </c>
+      <c r="D18">
+        <v>0.7177443454165768</v>
+      </c>
+      <c r="E18">
+        <v>0.4438242759463549</v>
+      </c>
+      <c r="F18">
+        <v>7.449938226194945</v>
+      </c>
+      <c r="G18">
+        <v>0.002669298772725628</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.4043549765995351</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>15.90171846030375</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.06103886291718652</v>
+      </c>
+      <c r="D19">
+        <v>0.7127823073334412</v>
+      </c>
+      <c r="E19">
+        <v>0.43997283519343</v>
+      </c>
+      <c r="F19">
+        <v>7.455644770487964</v>
+      </c>
+      <c r="G19">
+        <v>0.002671423364243843</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.4009397545773652</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>15.79190008823929</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.06329072737420915</v>
+      </c>
+      <c r="D20">
+        <v>0.7352163540081165</v>
+      </c>
+      <c r="E20">
+        <v>0.4573256938899419</v>
+      </c>
+      <c r="F20">
+        <v>7.431478848977576</v>
+      </c>
+      <c r="G20">
+        <v>0.002661897404638404</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.4163316461069257</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>16.28671722244684</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.07098391551906502</v>
+      </c>
+      <c r="D21">
+        <v>0.8125260320048824</v>
+      </c>
+      <c r="E21">
+        <v>0.5160320783435282</v>
+      </c>
+      <c r="F21">
+        <v>7.377680232316891</v>
+      </c>
+      <c r="G21">
+        <v>0.002630487962658359</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.4684852471165186</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>17.96114343182165</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.07611713421387378</v>
+      </c>
+      <c r="D22">
+        <v>0.8646323857784637</v>
+      </c>
+      <c r="E22">
+        <v>0.5547472911229505</v>
+      </c>
+      <c r="F22">
+        <v>7.364079767192266</v>
+      </c>
+      <c r="G22">
+        <v>0.002610385721394995</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.5029442677380018</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>19.06565744122122</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.07336710600171159</v>
+      </c>
+      <c r="D23">
+        <v>0.8366684057754128</v>
+      </c>
+      <c r="E23">
+        <v>0.5340493463169764</v>
+      </c>
+      <c r="F23">
+        <v>7.36928936139924</v>
+      </c>
+      <c r="G23">
+        <v>0.002621076981166307</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.4845155205264007</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>18.475138323755</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.06316661256593648</v>
+      </c>
+      <c r="D24">
+        <v>0.7339774435778281</v>
+      </c>
+      <c r="E24">
+        <v>0.4563713547105266</v>
+      </c>
+      <c r="F24">
+        <v>7.432705648588978</v>
+      </c>
+      <c r="G24">
+        <v>0.002662418234466187</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.4154848581712827</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>16.25950259499581</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.05254998381317932</v>
+      </c>
+      <c r="D25">
+        <v>0.6291220493946525</v>
+      </c>
+      <c r="E25">
+        <v>0.3737803001778701</v>
+      </c>
+      <c r="F25">
+        <v>7.586493582751757</v>
+      </c>
+      <c r="G25">
+        <v>0.002708958400025283</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.3423372128285962</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>13.90510595649437</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
